--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1245,7 +1245,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1256,6 +1256,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1289,16 +1295,16 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1636,10 +1642,10 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="3"/>
+      <c r="E1" s="1"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
+      <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2" t="s">
@@ -1677,7 +1683,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1699,14 +1705,14 @@
       <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="1"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1728,14 +1734,14 @@
       <c r="G4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="1"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1757,14 +1763,14 @@
       <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1786,14 +1792,14 @@
       <c r="G6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="1"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K6" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -1815,14 +1821,14 @@
       <c r="G7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="1"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -1844,14 +1850,14 @@
       <c r="G8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="1"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K8" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -1873,14 +1879,14 @@
       <c r="G9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="1"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K9" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -1902,14 +1908,14 @@
       <c r="G10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="1"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K10" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -1931,7 +1937,7 @@
       <c r="G11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="1"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
         <v>15</v>
@@ -1960,7 +1966,7 @@
       <c r="G12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="1"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
         <v>15</v>
@@ -1989,7 +1995,7 @@
       <c r="G13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="1"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
         <v>15</v>
@@ -2018,7 +2024,7 @@
       <c r="G14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="1"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
         <v>15</v>
@@ -2047,7 +2053,7 @@
       <c r="G15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="1"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
         <v>15</v>
@@ -2076,7 +2082,7 @@
       <c r="G16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="1"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
         <v>15</v>
@@ -2105,7 +2111,7 @@
       <c r="G17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="H17" s="1"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
         <v>15</v>
@@ -2134,7 +2140,7 @@
       <c r="G18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="3"/>
+      <c r="H18" s="1"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
         <v>15</v>
@@ -2163,7 +2169,7 @@
       <c r="G19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H19" s="1"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
         <v>15</v>
@@ -2192,7 +2198,7 @@
       <c r="G20" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H20" s="3"/>
+      <c r="H20" s="1"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
         <v>15</v>
@@ -2221,7 +2227,7 @@
       <c r="G21" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H21" s="3"/>
+      <c r="H21" s="1"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
         <v>15</v>
@@ -2250,7 +2256,7 @@
       <c r="G22" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H22" s="3"/>
+      <c r="H22" s="1"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2" t="s">
         <v>15</v>
@@ -2279,7 +2285,7 @@
       <c r="G23" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H23" s="3"/>
+      <c r="H23" s="1"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2" t="s">
         <v>15</v>
@@ -2308,7 +2314,7 @@
       <c r="G24" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H24" s="3"/>
+      <c r="H24" s="1"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2" t="s">
         <v>15</v>
@@ -2337,7 +2343,7 @@
       <c r="G25" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H25" s="3"/>
+      <c r="H25" s="1"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2" t="s">
         <v>15</v>
@@ -2366,7 +2372,7 @@
       <c r="G26" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H26" s="3"/>
+      <c r="H26" s="1"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2" t="s">
         <v>15</v>
@@ -2395,7 +2401,7 @@
       <c r="G27" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H27" s="3"/>
+      <c r="H27" s="1"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
         <v>15</v>
@@ -2424,7 +2430,7 @@
       <c r="G28" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H28" s="3"/>
+      <c r="H28" s="1"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2" t="s">
         <v>15</v>
@@ -2453,7 +2459,7 @@
       <c r="G29" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H29" s="3"/>
+      <c r="H29" s="1"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2" t="s">
         <v>15</v>
@@ -2482,7 +2488,7 @@
       <c r="G30" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H30" s="3"/>
+      <c r="H30" s="1"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
         <v>15</v>
@@ -2511,7 +2517,7 @@
       <c r="G31" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="H31" s="3"/>
+      <c r="H31" s="1"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
         <v>15</v>
@@ -2540,7 +2546,7 @@
       <c r="G32" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H32" s="3"/>
+      <c r="H32" s="1"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2" t="s">
         <v>15</v>
@@ -2569,7 +2575,7 @@
       <c r="G33" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H33" s="3"/>
+      <c r="H33" s="1"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2" t="s">
         <v>15</v>
@@ -2598,7 +2604,7 @@
       <c r="G34" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H34" s="3"/>
+      <c r="H34" s="1"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2" t="s">
         <v>15</v>
@@ -2627,7 +2633,7 @@
       <c r="G35" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="H35" s="3"/>
+      <c r="H35" s="1"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2" t="s">
         <v>15</v>
@@ -2656,7 +2662,7 @@
       <c r="G36" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H36" s="3"/>
+      <c r="H36" s="1"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
         <v>15</v>
@@ -2685,7 +2691,7 @@
       <c r="G37" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H37" s="3"/>
+      <c r="H37" s="1"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
         <v>15</v>
@@ -2714,7 +2720,7 @@
       <c r="G38" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H38" s="3"/>
+      <c r="H38" s="1"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2" t="s">
         <v>15</v>
@@ -2743,7 +2749,7 @@
       <c r="G39" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H39" s="3"/>
+      <c r="H39" s="1"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2" t="s">
         <v>15</v>
@@ -2772,7 +2778,7 @@
       <c r="G40" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H40" s="3"/>
+      <c r="H40" s="1"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
         <v>15</v>
@@ -2801,7 +2807,7 @@
       <c r="G41" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H41" s="3"/>
+      <c r="H41" s="1"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2" t="s">
         <v>15</v>
@@ -2830,7 +2836,7 @@
       <c r="G42" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H42" s="3"/>
+      <c r="H42" s="1"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2" t="s">
         <v>15</v>
@@ -2859,7 +2865,7 @@
       <c r="G43" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="H43" s="3"/>
+      <c r="H43" s="1"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2" t="s">
         <v>15</v>
@@ -2888,7 +2894,7 @@
       <c r="G44" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="H44" s="3"/>
+      <c r="H44" s="1"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2" t="s">
         <v>15</v>
@@ -2917,7 +2923,7 @@
       <c r="G45" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H45" s="3"/>
+      <c r="H45" s="1"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2" t="s">
         <v>15</v>
@@ -2946,7 +2952,7 @@
       <c r="G46" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H46" s="3"/>
+      <c r="H46" s="1"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2" t="s">
         <v>15</v>
@@ -2975,7 +2981,7 @@
       <c r="G47" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="H47" s="3"/>
+      <c r="H47" s="1"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2" t="s">
         <v>15</v>
@@ -3004,7 +3010,7 @@
       <c r="G48" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="H48" s="3"/>
+      <c r="H48" s="1"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2" t="s">
         <v>15</v>
@@ -3033,7 +3039,7 @@
       <c r="G49" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="H49" s="3"/>
+      <c r="H49" s="1"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2" t="s">
         <v>15</v>
@@ -3062,7 +3068,7 @@
       <c r="G50" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H50" s="3"/>
+      <c r="H50" s="1"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2" t="s">
         <v>15</v>
@@ -3091,7 +3097,7 @@
       <c r="G51" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="H51" s="3"/>
+      <c r="H51" s="1"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2" t="s">
         <v>15</v>
@@ -3120,7 +3126,7 @@
       <c r="G52" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="H52" s="3"/>
+      <c r="H52" s="1"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2" t="s">
         <v>15</v>
@@ -3149,7 +3155,7 @@
       <c r="G53" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="H53" s="3"/>
+      <c r="H53" s="1"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2" t="s">
         <v>15</v>
@@ -3178,7 +3184,7 @@
       <c r="G54" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="H54" s="3"/>
+      <c r="H54" s="1"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2" t="s">
         <v>15</v>
@@ -3207,7 +3213,7 @@
       <c r="G55" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H55" s="3"/>
+      <c r="H55" s="1"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2" t="s">
         <v>15</v>
@@ -3236,7 +3242,7 @@
       <c r="G56" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="H56" s="3"/>
+      <c r="H56" s="1"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2" t="s">
         <v>15</v>
@@ -3265,7 +3271,7 @@
       <c r="G57" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="H57" s="3"/>
+      <c r="H57" s="1"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2" t="s">
         <v>15</v>
@@ -3294,7 +3300,7 @@
       <c r="G58" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="H58" s="3"/>
+      <c r="H58" s="1"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2" t="s">
         <v>15</v>
@@ -3356,7 +3362,7 @@
       <c r="G60" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="H60" s="3"/>
+      <c r="H60" s="1"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2" t="s">
         <v>15</v>
@@ -3385,7 +3391,7 @@
       <c r="G61" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="H61" s="3"/>
+      <c r="H61" s="1"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2" t="s">
         <v>15</v>
@@ -3414,7 +3420,7 @@
       <c r="G62" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H62" s="3"/>
+      <c r="H62" s="1"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2" t="s">
         <v>15</v>
@@ -3443,7 +3449,7 @@
       <c r="G63" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="H63" s="3"/>
+      <c r="H63" s="1"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2" t="s">
         <v>15</v>
@@ -3472,7 +3478,7 @@
       <c r="G64" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="H64" s="3"/>
+      <c r="H64" s="1"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2" t="s">
         <v>15</v>
@@ -3501,7 +3507,7 @@
       <c r="G65" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="H65" s="3"/>
+      <c r="H65" s="1"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2" t="s">
         <v>15</v>
@@ -3530,7 +3536,7 @@
       <c r="G66" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="H66" s="3"/>
+      <c r="H66" s="1"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2" t="s">
         <v>15</v>
@@ -3559,7 +3565,7 @@
       <c r="G67" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="H67" s="3"/>
+      <c r="H67" s="1"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2" t="s">
         <v>15</v>
@@ -3588,7 +3594,7 @@
       <c r="G68" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="H68" s="3"/>
+      <c r="H68" s="1"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2" t="s">
         <v>15</v>
@@ -3650,7 +3656,7 @@
       <c r="G70" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="H70" s="3"/>
+      <c r="H70" s="1"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2" t="s">
         <v>15</v>
@@ -3679,7 +3685,7 @@
       <c r="G71" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="H71" s="3"/>
+      <c r="H71" s="1"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2" t="s">
         <v>15</v>
@@ -3708,7 +3714,7 @@
       <c r="G72" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="H72" s="3"/>
+      <c r="H72" s="1"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2" t="s">
         <v>15</v>
@@ -3737,7 +3743,7 @@
       <c r="G73" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="H73" s="3"/>
+      <c r="H73" s="1"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2" t="s">
         <v>15</v>
@@ -3766,7 +3772,7 @@
       <c r="G74" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="H74" s="3"/>
+      <c r="H74" s="1"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2" t="s">
         <v>15</v>
@@ -3828,7 +3834,7 @@
       <c r="G76" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="H76" s="3"/>
+      <c r="H76" s="1"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2" t="s">
         <v>15</v>
@@ -3956,7 +3962,7 @@
       <c r="G80" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="H80" s="3"/>
+      <c r="H80" s="1"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2" t="s">
         <v>15</v>
@@ -3985,7 +3991,7 @@
       <c r="G81" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="H81" s="3"/>
+      <c r="H81" s="1"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2" t="s">
         <v>15</v>
@@ -4014,7 +4020,7 @@
       <c r="G82" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="H82" s="3"/>
+      <c r="H82" s="1"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2" t="s">
         <v>15</v>
@@ -4109,7 +4115,7 @@
       <c r="G85" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="H85" s="3"/>
+      <c r="H85" s="1"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2" t="s">
         <v>15</v>
@@ -4138,7 +4144,7 @@
       <c r="G86" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="H86" s="3"/>
+      <c r="H86" s="1"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2" t="s">
         <v>15</v>
@@ -4167,7 +4173,7 @@
       <c r="G87" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="H87" s="3"/>
+      <c r="H87" s="1"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2" t="s">
         <v>15</v>
@@ -4229,7 +4235,7 @@
       <c r="G89" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="H89" s="3"/>
+      <c r="H89" s="1"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2" t="s">
         <v>15</v>
@@ -4258,7 +4264,7 @@
       <c r="G90" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="H90" s="3"/>
+      <c r="H90" s="1"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2" t="s">
         <v>15</v>
@@ -4287,7 +4293,7 @@
       <c r="G91" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H91" s="3"/>
+      <c r="H91" s="1"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2" t="s">
         <v>15</v>
@@ -4316,7 +4322,7 @@
       <c r="G92" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H92" s="3"/>
+      <c r="H92" s="1"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2" t="s">
         <v>15</v>
@@ -4345,7 +4351,7 @@
       <c r="G93" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="H93" s="3"/>
+      <c r="H93" s="1"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2" t="s">
         <v>15</v>
@@ -4374,7 +4380,7 @@
       <c r="G94" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="H94" s="3"/>
+      <c r="H94" s="1"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2" t="s">
         <v>15</v>
@@ -4403,7 +4409,7 @@
       <c r="G95" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="H95" s="3"/>
+      <c r="H95" s="1"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2" t="s">
         <v>15</v>
@@ -4432,7 +4438,7 @@
       <c r="G96" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H96" s="3"/>
+      <c r="H96" s="1"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2" t="s">
         <v>15</v>
@@ -4461,7 +4467,7 @@
       <c r="G97" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="H97" s="3"/>
+      <c r="H97" s="1"/>
       <c r="I97" s="2"/>
       <c r="J97" s="2" t="s">
         <v>15</v>
@@ -4490,7 +4496,7 @@
       <c r="G98" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="H98" s="3"/>
+      <c r="H98" s="1"/>
       <c r="I98" s="2"/>
       <c r="J98" s="2" t="s">
         <v>15</v>
@@ -4519,7 +4525,7 @@
       <c r="G99" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="H99" s="3"/>
+      <c r="H99" s="1"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2" t="s">
         <v>15</v>
@@ -4548,7 +4554,7 @@
       <c r="G100" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="H100" s="3"/>
+      <c r="H100" s="1"/>
       <c r="I100" s="2"/>
       <c r="J100" s="2" t="s">
         <v>15</v>
@@ -4610,7 +4616,7 @@
       <c r="G102" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="H102" s="3"/>
+      <c r="H102" s="1"/>
       <c r="I102" s="2"/>
       <c r="J102" s="2" t="s">
         <v>15</v>
@@ -4639,7 +4645,7 @@
       <c r="G103" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="H103" s="3"/>
+      <c r="H103" s="1"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2" t="s">
         <v>15</v>
@@ -4668,7 +4674,7 @@
       <c r="G104" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="H104" s="3"/>
+      <c r="H104" s="1"/>
       <c r="I104" s="2"/>
       <c r="J104" s="2" t="s">
         <v>15</v>
@@ -4697,7 +4703,7 @@
       <c r="G105" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="H105" s="3"/>
+      <c r="H105" s="1"/>
       <c r="I105" s="2"/>
       <c r="J105" s="2" t="s">
         <v>15</v>
@@ -4726,7 +4732,7 @@
       <c r="G106" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="H106" s="3"/>
+      <c r="H106" s="1"/>
       <c r="I106" s="2"/>
       <c r="J106" s="2" t="s">
         <v>15</v>
@@ -4788,7 +4794,7 @@
       <c r="G108" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="H108" s="3"/>
+      <c r="H108" s="1"/>
       <c r="I108" s="2"/>
       <c r="J108" s="2" t="s">
         <v>15</v>
@@ -4817,7 +4823,7 @@
       <c r="G109" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="H109" s="3"/>
+      <c r="H109" s="1"/>
       <c r="I109" s="2"/>
       <c r="J109" s="2" t="s">
         <v>15</v>
@@ -4879,7 +4885,7 @@
       <c r="G111" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H111" s="3"/>
+      <c r="H111" s="1"/>
       <c r="I111" s="2"/>
       <c r="J111" s="2" t="s">
         <v>15</v>
@@ -4908,7 +4914,7 @@
       <c r="G112" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="H112" s="3"/>
+      <c r="H112" s="1"/>
       <c r="I112" s="2"/>
       <c r="J112" s="2" t="s">
         <v>15</v>
@@ -4970,7 +4976,7 @@
       <c r="G114" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="H114" s="3"/>
+      <c r="H114" s="1"/>
       <c r="I114" s="2"/>
       <c r="J114" s="2" t="s">
         <v>15</v>
@@ -4999,7 +5005,7 @@
       <c r="G115" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="H115" s="3"/>
+      <c r="H115" s="1"/>
       <c r="I115" s="2"/>
       <c r="J115" s="2" t="s">
         <v>15</v>
@@ -5028,7 +5034,7 @@
       <c r="G116" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="H116" s="3"/>
+      <c r="H116" s="1"/>
       <c r="I116" s="2"/>
       <c r="J116" s="2" t="s">
         <v>15</v>
@@ -5057,7 +5063,7 @@
       <c r="G117" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="H117" s="3"/>
+      <c r="H117" s="1"/>
       <c r="I117" s="2"/>
       <c r="J117" s="2" t="s">
         <v>15</v>
@@ -5086,7 +5092,7 @@
       <c r="G118" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="H118" s="3"/>
+      <c r="H118" s="1"/>
       <c r="I118" s="2"/>
       <c r="J118" s="2" t="s">
         <v>15</v>
@@ -5115,7 +5121,7 @@
       <c r="G119" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="H119" s="3"/>
+      <c r="H119" s="1"/>
       <c r="I119" s="2"/>
       <c r="J119" s="2" t="s">
         <v>15</v>
